--- a/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.USER/falcon.app.xlsx
+++ b/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.USER/falcon.app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="67720" yWindow="-9200" windowWidth="46740" windowHeight="32900"/>
+    <workbookView xWindow="41980" yWindow="-8540" windowWidth="46740" windowHeight="32900"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="DATA-PERM" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>模块信息读取</t>
+  </si>
+  <si>
+    <t>62e52251-6e19-4ec5-a7d3-cfdf2968d4ca</t>
+  </si>
+  <si>
+    <t>环境信息更新</t>
+  </si>
+  <si>
+    <t>524d2d46-82cb-45ef-8f70-3ace75ed978f</t>
+  </si>
+  <si>
+    <t>数据源信息读取</t>
   </si>
   <si>
     <t>S_VIEW</t>
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K18"/>
+  <dimension ref="A3:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11" customHeight="1"/>
@@ -770,98 +782,120 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="D18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="J18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="K18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="15" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
